--- a/A5 skeleton and plan/implementation plan.xlsx
+++ b/A5 skeleton and plan/implementation plan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evete\OneDrive\Desktop\    \needfinding-userdes\A5 skeleton and plan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrei\Documents\School\Coollege\USERDES\userdesmi182a1flpedro_evteodoro\A5 skeleton and plan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC4922C-4FF8-4DF2-BBFC-EBCD4B54EA27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB38287-325E-43DF-9491-34DE2E88CFDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{388E1BA0-9EDB-4EBC-A176-415A16CEF8E9}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Week #</t>
   </si>
@@ -118,6 +118,21 @@
   </si>
   <si>
     <t>The group took a video of the testing.</t>
+  </si>
+  <si>
+    <t>Making of app in Ionic</t>
+  </si>
+  <si>
+    <t>Michael Menez</t>
+  </si>
+  <si>
+    <t>15/9/2019</t>
+  </si>
+  <si>
+    <t>Testing of app in Ionic</t>
+  </si>
+  <si>
+    <t>17/9/2019</t>
   </si>
 </sst>
 </file>
@@ -200,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,6 +237,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -537,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C84A973-F269-49D0-99C0-2AD99D669D3F}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -740,6 +758,30 @@
       </c>
       <c r="E14" s="4"/>
     </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
